--- a/results/I2_N10_T30_C275_0_P5_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1310.214944151744</v>
+        <v>823.5625691916686</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.02200007438659668</v>
+        <v>0.0150001049041748</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>31.88681369856157</v>
+        <v>50.56256919166783</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>5.828170918474254</v>
+        <v>2.665070355544108</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>5.216301371661726</v>
+        <v>2.665070355544108</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1017.479999999995</v>
+        <v>339.7300000000008</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>261.46</v>
+        <v>433.27</v>
       </c>
     </row>
   </sheetData>
@@ -584,7 +584,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -606,7 +606,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -617,7 +617,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -628,7 +628,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -766,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +777,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -788,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -901,7 +901,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -945,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -956,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5.336665625650532</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4">
@@ -1055,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.34885527085025</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>25.22705701268762</v>
+        <v>26.04424519687942</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1071,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>26.09699127290008</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>24.34885042281291</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
+        <v>13.99741166256366</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.91480702620259</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1103,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>24.14711948224307</v>
+        <v>3.108520548428142</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>22.66758337047728</v>
+        <v>29.56016612886865</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>30</v>
+        <v>27.01392077835702</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>27.28210730097497</v>
+        <v>25.21630137166173</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1181,7 +1181,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>12</v>
@@ -1195,7 +1195,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>12</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>12</v>
@@ -1223,7 +1223,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>12</v>
@@ -1237,7 +1237,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>12</v>
@@ -1246,76 +1246,6 @@
         <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>4</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>2</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>4</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3</v>
-      </c>
-      <c r="D9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>4</v>
-      </c>
-      <c r="C11" t="n">
-        <v>5</v>
-      </c>
-      <c r="D11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1418,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>97.1700000000008</v>
+        <v>150.2950000000002</v>
       </c>
     </row>
     <row r="8">
@@ -1429,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>99.27000000000081</v>
+        <v>148.4950000000002</v>
       </c>
     </row>
     <row r="9">
@@ -1440,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>100.1150000000008</v>
+        <v>140.8650000000002</v>
       </c>
     </row>
     <row r="10">
@@ -1451,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>99.0400000000008</v>
+        <v>151.1300000000002</v>
       </c>
     </row>
     <row r="11">
@@ -1462,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>97.9800000000008</v>
+        <v>149.8</v>
       </c>
     </row>
     <row r="12">
@@ -1473,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>81.47500000000072</v>
+        <v>204.6</v>
       </c>
     </row>
     <row r="13">
@@ -1484,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>80.68000000000072</v>
+        <v>199.8050000000005</v>
       </c>
     </row>
     <row r="14">
@@ -1495,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>84.71500000000073</v>
+        <v>210.1350000000005</v>
       </c>
     </row>
     <row r="15">
@@ -1506,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>80.43500000000073</v>
+        <v>207.665</v>
       </c>
     </row>
     <row r="16">
@@ -1517,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>87.34500000000074</v>
+        <v>205.635</v>
       </c>
     </row>
     <row r="17">
@@ -1528,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>154.3</v>
+        <v>40.35</v>
       </c>
     </row>
     <row r="18">
@@ -1539,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>148.3449999999993</v>
+        <v>30.90499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1550,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>128.7049999999993</v>
+        <v>27.59499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1561,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>146.3249999999993</v>
+        <v>31.97499999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1572,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>134.2149999999993</v>
+        <v>33.99499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1583,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>367.9899999999998</v>
+        <v>222.9249999999997</v>
       </c>
     </row>
     <row r="23">
@@ -1594,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>392.9749999999999</v>
+        <v>228.55</v>
       </c>
     </row>
     <row r="24">
@@ -1605,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>373.2599999999989</v>
+        <v>223.1849999999997</v>
       </c>
     </row>
     <row r="25">
@@ -1616,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>382.3799999999999</v>
+        <v>235.0849999999997</v>
       </c>
     </row>
     <row r="26">
@@ -1627,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>367.1349999999989</v>
+        <v>230.6149999999997</v>
       </c>
     </row>
     <row r="27">
@@ -1638,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>236.8400000000015</v>
+        <v>62.63000000000022</v>
       </c>
     </row>
     <row r="28">
@@ -1649,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>244.9650000000014</v>
+        <v>70.92000000000021</v>
       </c>
     </row>
     <row r="29">
@@ -1660,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>236.8400000000015</v>
+        <v>67.65500000000021</v>
       </c>
     </row>
     <row r="30">
@@ -1671,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>243.8100000000014</v>
+        <v>66.84500000000021</v>
       </c>
     </row>
     <row r="31">
@@ -1682,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>244.9650000000015</v>
+        <v>65.41000000000022</v>
       </c>
     </row>
     <row r="32">
@@ -1693,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>107.3799999999999</v>
+        <v>311.9799999999999</v>
       </c>
     </row>
     <row r="33">
@@ -1704,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>112.2399999999999</v>
+        <v>312.0450000000004</v>
       </c>
     </row>
     <row r="34">
@@ -1715,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>93.78999999999985</v>
+        <v>303.9250000000004</v>
       </c>
     </row>
     <row r="35">
@@ -1726,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>108.8349999999998</v>
+        <v>316.5</v>
       </c>
     </row>
     <row r="36">
@@ -1737,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>94.77999999999986</v>
+        <v>300.4149999999998</v>
       </c>
     </row>
     <row r="37">
@@ -1748,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>169.4850000000017</v>
+        <v>134.9450000000011</v>
       </c>
     </row>
     <row r="38">
@@ -1759,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>175.0800000000016</v>
+        <v>146.7300000000011</v>
       </c>
     </row>
     <row r="39">
@@ -1770,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>169.3900000000008</v>
+        <v>136.9300000000011</v>
       </c>
     </row>
     <row r="40">
@@ -1781,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>174</v>
+        <v>141.8050000000011</v>
       </c>
     </row>
     <row r="41">
@@ -1792,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>174.4750000000007</v>
+        <v>141.9050000000011</v>
       </c>
     </row>
     <row r="42">
@@ -1803,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>295.3600000000004</v>
+        <v>202.8700000000005</v>
       </c>
     </row>
     <row r="43">
@@ -1814,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>312.9200000000004</v>
+        <v>225.8900000000005</v>
       </c>
     </row>
     <row r="44">
@@ -1825,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>290.9399999999994</v>
+        <v>196.75</v>
       </c>
     </row>
     <row r="45">
@@ -1836,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>298.4250000000004</v>
+        <v>205.5750000000005</v>
       </c>
     </row>
     <row r="46">
@@ -1847,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>286.3199999999994</v>
+        <v>200.8350000000005</v>
       </c>
     </row>
     <row r="47">
@@ -1858,7 +1788,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>166.9600000000013</v>
+        <v>69.46000000000051</v>
       </c>
     </row>
     <row r="48">
@@ -1869,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>168.6450000000012</v>
+        <v>67.1350000000005</v>
       </c>
     </row>
     <row r="49">
@@ -1880,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>164.4300000000013</v>
+        <v>67.4450000000005</v>
       </c>
     </row>
     <row r="50">
@@ -1891,7 +1821,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>171.1650000000012</v>
+        <v>71.88000000000051</v>
       </c>
     </row>
     <row r="51">
@@ -1902,7 +1832,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>172.0750000000012</v>
+        <v>67.93500000000051</v>
       </c>
     </row>
     <row r="52">
@@ -1913,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>227.4350000000009</v>
+        <v>123.1249999999993</v>
       </c>
     </row>
     <row r="53">
@@ -1924,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>233.7600000000009</v>
+        <v>119.1249999999998</v>
       </c>
     </row>
     <row r="54">
@@ -1935,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>231.12</v>
+        <v>125.4199999999997</v>
       </c>
     </row>
     <row r="55">
@@ -1946,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>234.655000000001</v>
+        <v>127.2299999999993</v>
       </c>
     </row>
     <row r="56">
@@ -1957,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>227.39</v>
+        <v>118.2899999999993</v>
       </c>
     </row>
     <row r="57">
@@ -1968,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>154.3</v>
+        <v>222.9249999999997</v>
       </c>
     </row>
     <row r="58">
@@ -1979,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>148.3449999999993</v>
+        <v>228.55</v>
       </c>
     </row>
     <row r="59">
@@ -1990,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>128.7049999999993</v>
+        <v>223.1849999999997</v>
       </c>
     </row>
     <row r="60">
@@ -2001,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>146.3249999999993</v>
+        <v>235.0849999999997</v>
       </c>
     </row>
     <row r="61">
@@ -2012,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>134.2149999999993</v>
+        <v>230.6149999999997</v>
       </c>
     </row>
     <row r="62">
@@ -2023,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>367.9899999999998</v>
+        <v>311.9799999999999</v>
       </c>
     </row>
     <row r="63">
@@ -2034,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>392.9749999999999</v>
+        <v>312.0450000000004</v>
       </c>
     </row>
     <row r="64">
@@ -2045,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>373.2599999999989</v>
+        <v>303.9250000000004</v>
       </c>
     </row>
     <row r="65">
@@ -2056,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>382.3799999999999</v>
+        <v>316.5</v>
       </c>
     </row>
     <row r="66">
@@ -2067,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>367.1349999999989</v>
+        <v>300.4149999999998</v>
       </c>
     </row>
     <row r="67">
@@ -2078,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>236.8400000000015</v>
+        <v>202.8700000000005</v>
       </c>
     </row>
     <row r="68">
@@ -2089,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>244.9650000000014</v>
+        <v>225.8900000000005</v>
       </c>
     </row>
     <row r="69">
@@ -2100,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>236.8400000000015</v>
+        <v>196.75</v>
       </c>
     </row>
     <row r="70">
@@ -2111,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>243.8100000000014</v>
+        <v>205.5750000000005</v>
       </c>
     </row>
     <row r="71">
@@ -2122,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>244.9650000000015</v>
+        <v>200.8350000000005</v>
       </c>
     </row>
   </sheetData>
@@ -2224,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>92.98999999999984</v>
+        <v>36.97999999999985</v>
       </c>
     </row>
     <row r="8">
@@ -2235,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>117.9749999999999</v>
+        <v>37.04500000000039</v>
       </c>
     </row>
     <row r="9">
@@ -2246,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>98.25999999999891</v>
+        <v>28.92500000000032</v>
       </c>
     </row>
     <row r="10">
@@ -2257,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>107.3799999999999</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="11">
@@ -2268,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>92.13499999999891</v>
+        <v>25.41499999999983</v>
       </c>
     </row>
     <row r="12">
@@ -2370,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>12.775</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2381,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>18.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2392,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>13.155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2403,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>20.115</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2414,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>17.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2480,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>6.57</v>
       </c>
     </row>
     <row r="13">
@@ -2491,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="14">
@@ -2502,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>7.32</v>
       </c>
     </row>
     <row r="15">
@@ -2513,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>0</v>
+        <v>5.515</v>
       </c>
     </row>
     <row r="16">
@@ -2524,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>5.44</v>
       </c>
     </row>
     <row r="17">
@@ -2590,7 +2520,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="23">
@@ -2601,7 +2531,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="24">
@@ -2612,7 +2542,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>0</v>
+        <v>4.755</v>
       </c>
     </row>
     <row r="25">
@@ -2623,7 +2553,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="26">
@@ -2634,7 +2564,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7.48</v>
       </c>
     </row>
     <row r="27">
@@ -2810,7 +2740,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>0</v>
+        <v>16.025</v>
       </c>
     </row>
     <row r="43">
@@ -2821,7 +2751,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="44">
@@ -2832,7 +2762,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>12.27</v>
       </c>
     </row>
     <row r="45">
@@ -2843,7 +2773,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>18.85</v>
       </c>
     </row>
     <row r="46">
@@ -2854,7 +2784,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>16.795</v>
       </c>
     </row>
     <row r="47">
@@ -2865,7 +2795,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>0</v>
+        <v>4.285</v>
       </c>
     </row>
     <row r="48">
@@ -2876,7 +2806,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>0</v>
+        <v>6.69</v>
       </c>
     </row>
     <row r="49">
@@ -2887,7 +2817,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>0</v>
+        <v>3.755</v>
       </c>
     </row>
     <row r="50">
@@ -2898,7 +2828,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>0</v>
+        <v>5.305</v>
       </c>
     </row>
     <row r="51">
@@ -2909,7 +2839,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>0</v>
+        <v>2.56</v>
       </c>
     </row>
   </sheetData>
@@ -2923,7 +2853,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2950,7 +2880,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -2961,7 +2891,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
@@ -2972,7 +2902,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="n">
         <v>3</v>
@@ -2983,7 +2913,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -2994,67 +2924,12 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B6" t="n">
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>8</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>8</v>
-      </c>
-      <c r="B8" t="n">
-        <v>2</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="n">
-        <v>3</v>
-      </c>
-      <c r="C9" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="n">
-        <v>4</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>8</v>
-      </c>
-      <c r="B11" t="n">
-        <v>5</v>
-      </c>
-      <c r="C11" t="n">
         <v>1</v>
       </c>
     </row>

--- a/results/I2_N10_T30_C275_0_P5_res.xlsx
+++ b/results/I2_N10_T30_C275_0_P5_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>823.5625691916686</v>
+        <v>551.106579574967</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0150001049041748</v>
+        <v>0.01699995994567871</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.56256919166783</v>
+        <v>44.85657957496689</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2.665070355544108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2.665070355544108</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>339.7300000000008</v>
+        <v>207.1500000000001</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>433.27</v>
+        <v>299.1</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -580,61 +580,6 @@
         <is>
           <t>alpha</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>2</v>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>3</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>4</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>5</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -689,7 +634,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -700,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -711,7 +656,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +667,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +678,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +689,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +700,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -777,7 +722,7 @@
         <v>7</v>
       </c>
       <c r="B11" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -788,7 +733,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -799,7 +744,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -810,7 +755,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -857,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -879,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -901,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -945,7 +890,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -956,7 +901,7 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
@@ -1039,7 +984,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1055,7 +1000,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -1063,7 +1008,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>26.04424519687942</v>
+        <v>25.58932737017957</v>
       </c>
     </row>
     <row r="7">
@@ -1071,7 +1016,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>10</v>
+        <v>22.71621059566448</v>
       </c>
     </row>
     <row r="8">
@@ -1079,7 +1024,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>24.34885042281291</v>
+        <v>20.51470863196409</v>
       </c>
     </row>
     <row r="9">
@@ -1087,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>13.99741166256366</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1095,7 +1040,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20</v>
+        <v>22.45367071955468</v>
       </c>
     </row>
     <row r="11">
@@ -1103,7 +1048,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.108520548428142</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -1111,7 +1056,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
+        <v>4.104789885000205</v>
       </c>
     </row>
     <row r="13">
@@ -1119,7 +1064,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>29.56016612886865</v>
+        <v>27.66997209121641</v>
       </c>
     </row>
     <row r="14">
@@ -1127,7 +1072,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>27.01392077835702</v>
+        <v>23.1797789875082</v>
       </c>
     </row>
     <row r="15">
@@ -1135,7 +1080,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>25.21630137166173</v>
+        <v>29.1052483021688</v>
       </c>
     </row>
   </sheetData>
@@ -1149,7 +1094,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,76 +1122,6 @@
         <is>
           <t>y</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="n">
-        <v>12</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>6</v>
-      </c>
-      <c r="B3" t="n">
-        <v>12</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>6</v>
-      </c>
-      <c r="B4" t="n">
-        <v>12</v>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>6</v>
-      </c>
-      <c r="B5" t="n">
-        <v>12</v>
-      </c>
-      <c r="C5" t="n">
-        <v>4</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>6</v>
-      </c>
-      <c r="B6" t="n">
-        <v>12</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1348,7 +1223,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>150.2950000000002</v>
+        <v>148.9800000000008</v>
       </c>
     </row>
     <row r="8">
@@ -1359,7 +1234,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>148.4950000000002</v>
+        <v>151.3800000000007</v>
       </c>
     </row>
     <row r="9">
@@ -1370,7 +1245,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>140.8650000000002</v>
+        <v>158.3</v>
       </c>
     </row>
     <row r="10">
@@ -1381,7 +1256,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>151.1300000000002</v>
+        <v>156.4100000000007</v>
       </c>
     </row>
     <row r="11">
@@ -1392,7 +1267,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>149.8</v>
+        <v>151.6150000000007</v>
       </c>
     </row>
     <row r="12">
@@ -1403,7 +1278,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>204.6</v>
+        <v>81.47500000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1414,7 +1289,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>199.8050000000005</v>
+        <v>80.68000000000072</v>
       </c>
     </row>
     <row r="14">
@@ -1425,7 +1300,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>210.1350000000005</v>
+        <v>84.71500000000073</v>
       </c>
     </row>
     <row r="15">
@@ -1436,7 +1311,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>207.665</v>
+        <v>80.43500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1447,7 +1322,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>205.635</v>
+        <v>87.34500000000074</v>
       </c>
     </row>
     <row r="17">
@@ -1458,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>195.9</v>
       </c>
     </row>
     <row r="18">
@@ -1469,7 +1344,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>187.4850000000002</v>
       </c>
     </row>
     <row r="19">
@@ -1480,7 +1355,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>193.2150000000001</v>
       </c>
     </row>
     <row r="20">
@@ -1491,7 +1366,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>193.9</v>
       </c>
     </row>
     <row r="21">
@@ -1502,7 +1377,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999941</v>
+        <v>191.05</v>
       </c>
     </row>
     <row r="22">
@@ -1513,7 +1388,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>222.9249999999997</v>
+        <v>223.9850000000004</v>
       </c>
     </row>
     <row r="23">
@@ -1524,7 +1399,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>228.55</v>
+        <v>237.0550000000004</v>
       </c>
     </row>
     <row r="24">
@@ -1535,7 +1410,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>223.1849999999997</v>
+        <v>239.4450000000004</v>
       </c>
     </row>
     <row r="25">
@@ -1546,7 +1421,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>235.0849999999997</v>
+        <v>237.0350000000004</v>
       </c>
     </row>
     <row r="26">
@@ -1557,7 +1432,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>230.6149999999997</v>
+        <v>241.05</v>
       </c>
     </row>
     <row r="27">
@@ -1568,7 +1443,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>62.63000000000022</v>
+        <v>151.355000000001</v>
       </c>
     </row>
     <row r="28">
@@ -1579,7 +1454,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>70.92000000000021</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29">
@@ -1590,7 +1465,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>67.65500000000021</v>
+        <v>157.1250000000009</v>
       </c>
     </row>
     <row r="30">
@@ -1601,7 +1476,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.84500000000021</v>
+        <v>153.0800000000009</v>
       </c>
     </row>
     <row r="31">
@@ -1612,7 +1487,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>65.41000000000022</v>
+        <v>160.235000000001</v>
       </c>
     </row>
     <row r="32">
@@ -1623,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>311.9799999999999</v>
+        <v>303.28</v>
       </c>
     </row>
     <row r="33">
@@ -1634,7 +1509,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>312.0450000000004</v>
+        <v>299.725</v>
       </c>
     </row>
     <row r="34">
@@ -1645,7 +1520,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>303.9250000000004</v>
+        <v>287.005</v>
       </c>
     </row>
     <row r="35">
@@ -1656,7 +1531,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>316.5</v>
+        <v>302.735</v>
       </c>
     </row>
     <row r="36">
@@ -1667,7 +1542,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>300.4149999999998</v>
+        <v>285.83</v>
       </c>
     </row>
     <row r="37">
@@ -1678,7 +1553,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>134.9450000000011</v>
+        <v>72.31500000000088</v>
       </c>
     </row>
     <row r="38">
@@ -1689,7 +1564,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>146.7300000000011</v>
+        <v>75.81000000000087</v>
       </c>
     </row>
     <row r="39">
@@ -1700,7 +1575,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>136.9300000000011</v>
+        <v>69.27500000000087</v>
       </c>
     </row>
     <row r="40">
@@ -1711,7 +1586,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>141.8050000000011</v>
+        <v>74.96000000000087</v>
       </c>
     </row>
     <row r="41">
@@ -1722,7 +1597,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>141.9050000000011</v>
+        <v>76.49500000000087</v>
       </c>
     </row>
     <row r="42">
@@ -1733,7 +1608,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>202.8700000000005</v>
+        <v>225.7250000000008</v>
       </c>
     </row>
     <row r="43">
@@ -1744,7 +1619,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>225.8900000000005</v>
+        <v>242.9350000000008</v>
       </c>
     </row>
     <row r="44">
@@ -1755,7 +1630,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>196.75</v>
+        <v>208.8100000000008</v>
       </c>
     </row>
     <row r="45">
@@ -1766,7 +1641,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>205.5750000000005</v>
+        <v>229.4600000000008</v>
       </c>
     </row>
     <row r="46">
@@ -1777,7 +1652,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>200.8350000000005</v>
+        <v>220.1550000000008</v>
       </c>
     </row>
     <row r="47">
@@ -1788,7 +1663,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>69.46000000000051</v>
+        <v>157.8</v>
       </c>
     </row>
     <row r="48">
@@ -1799,7 +1674,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>67.1350000000005</v>
+        <v>163.7750000000014</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1685,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>67.4450000000005</v>
+        <v>148.9900000000014</v>
       </c>
     </row>
     <row r="50">
@@ -1821,7 +1696,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>71.88000000000051</v>
+        <v>165.6900000000014</v>
       </c>
     </row>
     <row r="51">
@@ -1832,7 +1707,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>67.93500000000051</v>
+        <v>161.2250000000014</v>
       </c>
     </row>
     <row r="52">
@@ -1843,7 +1718,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>123.1249999999993</v>
+        <v>48.80499999999927</v>
       </c>
     </row>
     <row r="53">
@@ -1854,7 +1729,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>119.1249999999998</v>
+        <v>47.43999999999927</v>
       </c>
     </row>
     <row r="54">
@@ -1865,7 +1740,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>125.4199999999997</v>
+        <v>52.62999999999927</v>
       </c>
     </row>
     <row r="55">
@@ -1876,7 +1751,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>127.2299999999993</v>
+        <v>50.30499999999927</v>
       </c>
     </row>
     <row r="56">
@@ -1887,7 +1762,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>118.2899999999993</v>
+        <v>46.3</v>
       </c>
     </row>
     <row r="57">
@@ -1898,7 +1773,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>222.9249999999997</v>
+        <v>225.7250000000008</v>
       </c>
     </row>
     <row r="58">
@@ -1909,7 +1784,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>228.55</v>
+        <v>242.9350000000008</v>
       </c>
     </row>
     <row r="59">
@@ -1920,7 +1795,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>223.1849999999997</v>
+        <v>208.8100000000008</v>
       </c>
     </row>
     <row r="60">
@@ -1931,7 +1806,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>235.0849999999997</v>
+        <v>229.4600000000008</v>
       </c>
     </row>
     <row r="61">
@@ -1942,7 +1817,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>230.6149999999997</v>
+        <v>220.1550000000008</v>
       </c>
     </row>
     <row r="62">
@@ -1953,7 +1828,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>311.9799999999999</v>
+        <v>303.28</v>
       </c>
     </row>
     <row r="63">
@@ -1964,7 +1839,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>312.0450000000004</v>
+        <v>299.725</v>
       </c>
     </row>
     <row r="64">
@@ -1975,7 +1850,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>303.9250000000004</v>
+        <v>287.005</v>
       </c>
     </row>
     <row r="65">
@@ -1986,7 +1861,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>316.5</v>
+        <v>302.735</v>
       </c>
     </row>
     <row r="66">
@@ -1997,7 +1872,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>300.4149999999998</v>
+        <v>285.83</v>
       </c>
     </row>
     <row r="67">
@@ -2008,7 +1883,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>202.8700000000005</v>
+        <v>223.9850000000004</v>
       </c>
     </row>
     <row r="68">
@@ -2019,7 +1894,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>225.8900000000005</v>
+        <v>237.0550000000004</v>
       </c>
     </row>
     <row r="69">
@@ -2030,7 +1905,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>196.75</v>
+        <v>239.4450000000004</v>
       </c>
     </row>
     <row r="70">
@@ -2041,7 +1916,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>205.5750000000005</v>
+        <v>237.0350000000004</v>
       </c>
     </row>
     <row r="71">
@@ -2052,7 +1927,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>200.8350000000005</v>
+        <v>241.05</v>
       </c>
     </row>
   </sheetData>
@@ -2154,7 +2029,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>36.97999999999985</v>
+        <v>28.28000000000003</v>
       </c>
     </row>
     <row r="8">
@@ -2165,7 +2040,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>37.04500000000039</v>
+        <v>24.72500000000002</v>
       </c>
     </row>
     <row r="9">
@@ -2176,7 +2051,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>28.92500000000032</v>
+        <v>12.005</v>
       </c>
     </row>
     <row r="10">
@@ -2187,7 +2062,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>41.5</v>
+        <v>27.73500000000001</v>
       </c>
     </row>
     <row r="11">
@@ -2198,7 +2073,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>25.41499999999983</v>
+        <v>10.83</v>
       </c>
     </row>
     <row r="12">
@@ -2300,7 +2175,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.77</v>
       </c>
     </row>
     <row r="3">
@@ -2311,7 +2186,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>13.65</v>
       </c>
     </row>
     <row r="4">
@@ -2322,7 +2197,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="5">
@@ -2333,7 +2208,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>13.05</v>
       </c>
     </row>
     <row r="6">
@@ -2344,7 +2219,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>10.49</v>
       </c>
     </row>
     <row r="7">
@@ -2410,7 +2285,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2421,7 +2296,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2432,7 +2307,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2443,7 +2318,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2454,7 +2329,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2520,7 +2395,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>7.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2531,7 +2406,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>5.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2542,7 +2417,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>4.755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2553,7 +2428,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>5.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2564,7 +2439,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>7.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2740,7 +2615,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>16.025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2751,7 +2626,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>20.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2762,7 +2637,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>12.27</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2773,7 +2648,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>18.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2784,7 +2659,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>16.795</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2795,7 +2670,7 @@
         <v>1</v>
       </c>
       <c r="C47" t="n">
-        <v>4.285</v>
+        <v>9.145</v>
       </c>
     </row>
     <row r="48">
@@ -2806,7 +2681,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>6.69</v>
+        <v>11.24</v>
       </c>
     </row>
     <row r="49">
@@ -2817,7 +2692,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>3.755</v>
+        <v>9.1</v>
       </c>
     </row>
     <row r="50">
@@ -2828,7 +2703,7 @@
         <v>4</v>
       </c>
       <c r="C50" t="n">
-        <v>5.305</v>
+        <v>10.35</v>
       </c>
     </row>
     <row r="51">
@@ -2839,7 +2714,7 @@
         <v>5</v>
       </c>
       <c r="C51" t="n">
-        <v>2.56</v>
+        <v>6.615</v>
       </c>
     </row>
   </sheetData>
